--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>6.686327333333334</v>
+        <v>9.361143666666667</v>
       </c>
       <c r="H2">
-        <v>20.058982</v>
+        <v>28.083431</v>
       </c>
       <c r="I2">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218525</v>
       </c>
       <c r="J2">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218526</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>81.979392</v>
+        <v>139.2986196666667</v>
       </c>
       <c r="N2">
-        <v>245.938176</v>
+        <v>417.895859</v>
       </c>
       <c r="O2">
-        <v>0.523851352180617</v>
+        <v>0.6137320738580456</v>
       </c>
       <c r="P2">
-        <v>0.523851352180617</v>
+        <v>0.6137320738580456</v>
       </c>
       <c r="Q2">
-        <v>548.141049499648</v>
+        <v>1303.994391268026</v>
       </c>
       <c r="R2">
-        <v>4933.269445496832</v>
+        <v>11735.94952141223</v>
       </c>
       <c r="S2">
-        <v>0.09243351371192245</v>
+        <v>0.1206557279445475</v>
       </c>
       <c r="T2">
-        <v>0.09243351371192245</v>
+        <v>0.1206557279445475</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6.686327333333334</v>
+        <v>9.361143666666667</v>
       </c>
       <c r="H3">
-        <v>20.058982</v>
+        <v>28.083431</v>
       </c>
       <c r="I3">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218525</v>
       </c>
       <c r="J3">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218526</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>66.515912</v>
       </c>
       <c r="O3">
-        <v>0.1416797140218155</v>
+        <v>0.09768689432339951</v>
       </c>
       <c r="P3">
-        <v>0.1416797140218155</v>
+        <v>0.09768689432339951</v>
       </c>
       <c r="Q3">
-        <v>148.2490535023982</v>
+        <v>207.5550027837858</v>
       </c>
       <c r="R3">
-        <v>1334.241481521584</v>
+        <v>1867.995025054072</v>
       </c>
       <c r="S3">
-        <v>0.02499937002018355</v>
+        <v>0.01920460710345412</v>
       </c>
       <c r="T3">
-        <v>0.02499937002018355</v>
+        <v>0.01920460710345412</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>6.686327333333334</v>
+        <v>9.361143666666667</v>
       </c>
       <c r="H4">
-        <v>20.058982</v>
+        <v>28.083431</v>
       </c>
       <c r="I4">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218525</v>
       </c>
       <c r="J4">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218526</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.35431</v>
+        <v>35.78898466666666</v>
       </c>
       <c r="N4">
-        <v>67.06292999999999</v>
+        <v>107.366954</v>
       </c>
       <c r="O4">
-        <v>0.142844869117408</v>
+        <v>0.1576817331952585</v>
       </c>
       <c r="P4">
-        <v>0.142844869117408</v>
+        <v>0.1576817331952585</v>
       </c>
       <c r="Q4">
-        <v>149.4682339708067</v>
+        <v>335.0258271487971</v>
       </c>
       <c r="R4">
-        <v>1345.21410573726</v>
+        <v>3015.232444339174</v>
       </c>
       <c r="S4">
-        <v>0.02520496150917495</v>
+        <v>0.03099920162659171</v>
       </c>
       <c r="T4">
-        <v>0.02520496150917495</v>
+        <v>0.03099920162659172</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>6.686327333333334</v>
+        <v>9.361143666666667</v>
       </c>
       <c r="H5">
-        <v>20.058982</v>
+        <v>28.083431</v>
       </c>
       <c r="I5">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218525</v>
       </c>
       <c r="J5">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218526</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.98794266666667</v>
+        <v>29.710182</v>
       </c>
       <c r="N5">
-        <v>89.96382800000001</v>
+        <v>89.13054600000001</v>
       </c>
       <c r="O5">
-        <v>0.1916240646801595</v>
+        <v>0.1308992986232963</v>
       </c>
       <c r="P5">
-        <v>0.1916240646801595</v>
+        <v>0.1308992986232963</v>
       </c>
       <c r="Q5">
-        <v>200.5092007225662</v>
+        <v>278.121282064814</v>
       </c>
       <c r="R5">
-        <v>1804.582806503096</v>
+        <v>2503.091538583326</v>
       </c>
       <c r="S5">
-        <v>0.0338120452231663</v>
+        <v>0.02573394944725924</v>
       </c>
       <c r="T5">
-        <v>0.0338120452231663</v>
+        <v>0.02573394944725924</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>40.136059</v>
       </c>
       <c r="I6">
-        <v>0.353058954548371</v>
+        <v>0.2809659460057553</v>
       </c>
       <c r="J6">
-        <v>0.3530589545483711</v>
+        <v>0.2809659460057554</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.979392</v>
+        <v>139.2986196666667</v>
       </c>
       <c r="N6">
-        <v>245.938176</v>
+        <v>417.895859</v>
       </c>
       <c r="O6">
-        <v>0.523851352180617</v>
+        <v>0.6137320738580456</v>
       </c>
       <c r="P6">
-        <v>0.523851352180617</v>
+        <v>0.6137320738580456</v>
       </c>
       <c r="Q6">
-        <v>1096.776571365376</v>
+        <v>1863.632539186631</v>
       </c>
       <c r="R6">
-        <v>9870.989142288385</v>
+        <v>16772.69285267968</v>
       </c>
       <c r="S6">
-        <v>0.1849504107396391</v>
+        <v>0.1724378127255999</v>
       </c>
       <c r="T6">
-        <v>0.1849504107396392</v>
+        <v>0.1724378127255999</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>40.136059</v>
       </c>
       <c r="I7">
-        <v>0.353058954548371</v>
+        <v>0.2809659460057553</v>
       </c>
       <c r="J7">
-        <v>0.3530589545483711</v>
+        <v>0.2809659460057554</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>66.515912</v>
       </c>
       <c r="O7">
-        <v>0.1416797140218155</v>
+        <v>0.09768689432339951</v>
       </c>
       <c r="P7">
-        <v>0.1416797140218155</v>
+        <v>0.09768689432339951</v>
       </c>
       <c r="Q7">
         <v>296.6318409412009</v>
@@ -883,10 +883,10 @@
         <v>2669.686568470808</v>
       </c>
       <c r="S7">
-        <v>0.05002129171325435</v>
+        <v>0.02744669067593819</v>
       </c>
       <c r="T7">
-        <v>0.05002129171325436</v>
+        <v>0.0274466906759382</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>40.136059</v>
       </c>
       <c r="I8">
-        <v>0.353058954548371</v>
+        <v>0.2809659460057553</v>
       </c>
       <c r="J8">
-        <v>0.3530589545483711</v>
+        <v>0.2809659460057554</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.35431</v>
+        <v>35.78898466666666</v>
       </c>
       <c r="N8">
-        <v>67.06292999999999</v>
+        <v>107.366954</v>
       </c>
       <c r="O8">
-        <v>0.142844869117408</v>
+        <v>0.1576817331952585</v>
       </c>
       <c r="P8">
-        <v>0.142844869117408</v>
+        <v>0.1576817331952585</v>
       </c>
       <c r="Q8">
-        <v>299.0713016880966</v>
+        <v>478.8096000438096</v>
       </c>
       <c r="R8">
-        <v>2691.64171519287</v>
+        <v>4309.286400394286</v>
       </c>
       <c r="S8">
-        <v>0.05043266015319096</v>
+        <v>0.04430319733503292</v>
       </c>
       <c r="T8">
-        <v>0.05043266015319096</v>
+        <v>0.04430319733503293</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>40.136059</v>
       </c>
       <c r="I9">
-        <v>0.353058954548371</v>
+        <v>0.2809659460057553</v>
       </c>
       <c r="J9">
-        <v>0.3530589545483711</v>
+        <v>0.2809659460057554</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.98794266666667</v>
+        <v>29.710182</v>
       </c>
       <c r="N9">
-        <v>89.96382800000001</v>
+        <v>89.13054600000001</v>
       </c>
       <c r="O9">
-        <v>0.1916240646801595</v>
+        <v>0.1308992986232963</v>
       </c>
       <c r="P9">
-        <v>0.1916240646801595</v>
+        <v>0.1308992986232963</v>
       </c>
       <c r="Q9">
-        <v>401.199278719317</v>
+        <v>397.483205884246</v>
       </c>
       <c r="R9">
-        <v>3610.793508473852</v>
+        <v>3577.348852958215</v>
       </c>
       <c r="S9">
-        <v>0.06765459194228654</v>
+        <v>0.03677824526918431</v>
       </c>
       <c r="T9">
-        <v>0.06765459194228654</v>
+        <v>0.03677824526918432</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.203868666666668</v>
+        <v>7.684952333333334</v>
       </c>
       <c r="H10">
-        <v>12.611606</v>
+        <v>23.054857</v>
       </c>
       <c r="I10">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="J10">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>81.979392</v>
+        <v>139.2986196666667</v>
       </c>
       <c r="N10">
-        <v>245.938176</v>
+        <v>417.895859</v>
       </c>
       <c r="O10">
-        <v>0.523851352180617</v>
+        <v>0.6137320738580456</v>
       </c>
       <c r="P10">
-        <v>0.523851352180617</v>
+        <v>0.6137320738580456</v>
       </c>
       <c r="Q10">
-        <v>344.6305973411841</v>
+        <v>1070.503252237463</v>
       </c>
       <c r="R10">
-        <v>3101.675376070657</v>
+        <v>9634.529270137164</v>
       </c>
       <c r="S10">
-        <v>0.05811536478423299</v>
+        <v>0.09905130729904214</v>
       </c>
       <c r="T10">
-        <v>0.05811536478423299</v>
+        <v>0.09905130729904214</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.203868666666668</v>
+        <v>7.684952333333334</v>
       </c>
       <c r="H11">
-        <v>12.611606</v>
+        <v>23.054857</v>
       </c>
       <c r="I11">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="J11">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>66.515912</v>
       </c>
       <c r="O11">
-        <v>0.1416797140218155</v>
+        <v>0.09768689432339951</v>
       </c>
       <c r="P11">
-        <v>0.1416797140218155</v>
+        <v>0.09768689432339951</v>
       </c>
       <c r="Q11">
-        <v>93.20805276385246</v>
+        <v>170.3905377093982</v>
       </c>
       <c r="R11">
-        <v>838.8724748746721</v>
+        <v>1533.514839384584</v>
       </c>
       <c r="S11">
-        <v>0.01571775700994034</v>
+        <v>0.01576586103426319</v>
       </c>
       <c r="T11">
-        <v>0.01571775700994034</v>
+        <v>0.01576586103426319</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.203868666666668</v>
+        <v>7.684952333333334</v>
       </c>
       <c r="H12">
-        <v>12.611606</v>
+        <v>23.054857</v>
       </c>
       <c r="I12">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="J12">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.35431</v>
+        <v>35.78898466666666</v>
       </c>
       <c r="N12">
-        <v>67.06292999999999</v>
+        <v>107.366954</v>
       </c>
       <c r="O12">
-        <v>0.142844869117408</v>
+        <v>0.1576817331952585</v>
       </c>
       <c r="P12">
-        <v>0.142844869117408</v>
+        <v>0.1576817331952585</v>
       </c>
       <c r="Q12">
-        <v>93.97458337395335</v>
+        <v>275.0366412217309</v>
       </c>
       <c r="R12">
-        <v>845.77125036558</v>
+        <v>2475.329770995578</v>
       </c>
       <c r="S12">
-        <v>0.01584701774989777</v>
+        <v>0.02544853442641105</v>
       </c>
       <c r="T12">
-        <v>0.01584701774989777</v>
+        <v>0.02544853442641106</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.203868666666668</v>
+        <v>7.684952333333334</v>
       </c>
       <c r="H13">
-        <v>12.611606</v>
+        <v>23.054857</v>
       </c>
       <c r="I13">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="J13">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.98794266666667</v>
+        <v>29.710182</v>
       </c>
       <c r="N13">
-        <v>89.96382800000001</v>
+        <v>89.13054600000001</v>
       </c>
       <c r="O13">
-        <v>0.1916240646801595</v>
+        <v>0.1308992986232963</v>
       </c>
       <c r="P13">
-        <v>0.1916240646801595</v>
+        <v>0.1308992986232963</v>
       </c>
       <c r="Q13">
-        <v>126.0653725541965</v>
+        <v>228.3213324846581</v>
       </c>
       <c r="R13">
-        <v>1134.588352987768</v>
+        <v>2054.891992361922</v>
       </c>
       <c r="S13">
-        <v>0.02125851613051727</v>
+        <v>0.0211260698364025</v>
       </c>
       <c r="T13">
-        <v>0.02125851613051727</v>
+        <v>0.0211260698364025</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.62475033333333</v>
+        <v>17.19197166666666</v>
       </c>
       <c r="H14">
-        <v>40.874251</v>
+        <v>51.57591499999999</v>
       </c>
       <c r="I14">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762732</v>
       </c>
       <c r="J14">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762733</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>81.979392</v>
+        <v>139.2986196666667</v>
       </c>
       <c r="N14">
-        <v>245.938176</v>
+        <v>417.895859</v>
       </c>
       <c r="O14">
-        <v>0.523851352180617</v>
+        <v>0.6137320738580456</v>
       </c>
       <c r="P14">
-        <v>0.523851352180617</v>
+        <v>0.6137320738580456</v>
       </c>
       <c r="Q14">
-        <v>1116.948748478464</v>
+        <v>2394.817922515109</v>
       </c>
       <c r="R14">
-        <v>10052.53873630618</v>
+        <v>21553.36130263598</v>
       </c>
       <c r="S14">
-        <v>0.1883520629448224</v>
+        <v>0.2215872258888561</v>
       </c>
       <c r="T14">
-        <v>0.1883520629448224</v>
+        <v>0.2215872258888561</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.62475033333333</v>
+        <v>17.19197166666666</v>
       </c>
       <c r="H15">
-        <v>40.874251</v>
+        <v>51.57591499999999</v>
       </c>
       <c r="I15">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762732</v>
       </c>
       <c r="J15">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762733</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>66.515912</v>
       </c>
       <c r="O15">
-        <v>0.1416797140218155</v>
+        <v>0.09768689432339951</v>
       </c>
       <c r="P15">
-        <v>0.1416797140218155</v>
+        <v>0.09768689432339951</v>
       </c>
       <c r="Q15">
-        <v>302.0875647313235</v>
+        <v>381.1798914954977</v>
       </c>
       <c r="R15">
-        <v>2718.788082581912</v>
+        <v>3430.61902345948</v>
       </c>
       <c r="S15">
-        <v>0.05094129527843724</v>
+        <v>0.03526973550974401</v>
       </c>
       <c r="T15">
-        <v>0.05094129527843724</v>
+        <v>0.03526973550974401</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.62475033333333</v>
+        <v>17.19197166666666</v>
       </c>
       <c r="H16">
-        <v>40.874251</v>
+        <v>51.57591499999999</v>
       </c>
       <c r="I16">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762732</v>
       </c>
       <c r="J16">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762733</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.35431</v>
+        <v>35.78898466666666</v>
       </c>
       <c r="N16">
-        <v>67.06292999999999</v>
+        <v>107.366954</v>
       </c>
       <c r="O16">
-        <v>0.142844869117408</v>
+        <v>0.1576817331952585</v>
       </c>
       <c r="P16">
-        <v>0.142844869117408</v>
+        <v>0.1576817331952585</v>
       </c>
       <c r="Q16">
-        <v>304.5718926239367</v>
+        <v>615.283210368101</v>
       </c>
       <c r="R16">
-        <v>2741.14703361543</v>
+        <v>5537.548893312909</v>
       </c>
       <c r="S16">
-        <v>0.05136022970514433</v>
+        <v>0.05693079980722283</v>
       </c>
       <c r="T16">
-        <v>0.05136022970514434</v>
+        <v>0.05693079980722285</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.62475033333333</v>
+        <v>17.19197166666666</v>
       </c>
       <c r="H17">
-        <v>40.874251</v>
+        <v>51.57591499999999</v>
       </c>
       <c r="I17">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762732</v>
       </c>
       <c r="J17">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762733</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.98794266666667</v>
+        <v>29.710182</v>
       </c>
       <c r="N17">
-        <v>89.96382800000001</v>
+        <v>89.13054600000001</v>
       </c>
       <c r="O17">
-        <v>0.1916240646801595</v>
+        <v>0.1308992986232963</v>
       </c>
       <c r="P17">
-        <v>0.1916240646801595</v>
+        <v>0.1308992986232963</v>
       </c>
       <c r="Q17">
-        <v>408.5782318436476</v>
+        <v>510.77660715551</v>
       </c>
       <c r="R17">
-        <v>3677.204086592828</v>
+        <v>4596.98946439959</v>
       </c>
       <c r="S17">
-        <v>0.0688989113841894</v>
+        <v>0.04726103407045026</v>
       </c>
       <c r="T17">
-        <v>0.06889891138418941</v>
+        <v>0.04726103407045027</v>
       </c>
     </row>
   </sheetData>
